--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$91</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="153">
   <si>
     <t>lang_code</t>
   </si>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>مسجل الميلاد / مؤسسة البلدية أو أي شهادة ميلاد حكومية محلية</t>
+  </si>
+  <si>
+    <t>شهادة الاستثناء</t>
+  </si>
+  <si>
+    <t>إكسبيديشن فوتو</t>
   </si>
 </sst>
 </file>
@@ -842,10 +848,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E90"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -891,7 +898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -925,7 +932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -942,7 +949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -976,7 +983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -993,7 +1000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1027,7 +1034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1078,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1129,7 +1136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1146,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1197,18 +1204,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
@@ -1231,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1248,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1265,7 +1272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1282,7 +1289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1299,7 +1306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1316,7 +1323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1350,7 +1357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1367,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1384,7 +1391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1401,7 +1408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1435,7 +1442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1452,7 +1459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1469,7 +1476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1486,7 +1493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1503,7 +1510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1520,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1537,7 +1544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +1561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1571,7 +1578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1588,7 +1595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1979,7 +1986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2013,7 +2020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2030,7 +2037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2047,7 +2054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2064,7 +2071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2081,7 +2088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2098,7 +2105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2115,7 +2122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2132,7 +2139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -2149,7 +2156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2166,7 +2173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2183,7 +2190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -2200,7 +2207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2217,7 +2224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2234,7 +2241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -2251,7 +2258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2268,7 +2275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -2285,7 +2292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2302,7 +2309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2319,7 +2326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -2336,7 +2343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -2353,7 +2360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -2370,7 +2377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -2387,8 +2394,31 @@
         <v>8</v>
       </c>
     </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" t="s">
+        <v>152</v>
+      </c>
+      <c r="D91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A97"/>
+  <autoFilter ref="A1:E91">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="fra"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
